--- a/medicine/Mort/Liste_de_gisants_situés_en_France/Liste_de_gisants_situés_en_France.xlsx
+++ b/medicine/Mort/Liste_de_gisants_situés_en_France/Liste_de_gisants_situés_en_France.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F97"/>
+  <dimension ref="A1:H97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_de_gisants_situ%C3%A9s_en_France</t>
+          <t>Liste_de_gisants_situés_en_France</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette liste recense les gisants situés en France, classés par départements, puis par communes dans l'ordre alphabétique. Les orants sculptés et les gisants du Christ, seuls ou dans des mises au tombeau sculptées, sont exclus de cette liste.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_de_gisants_situ%C3%A9s_en_France</t>
+          <t>Liste_de_gisants_situés_en_France</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -519,7 +533,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liste_de_gisants_situ%C3%A9s_en_France</t>
+          <t>Liste_de_gisants_situés_en_France</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -538,6 +552,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -545,7 +561,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Liste_de_gisants_situ%C3%A9s_en_France</t>
+          <t>Liste_de_gisants_situés_en_France</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -564,6 +580,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -571,7 +589,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Liste_de_gisants_situ%C3%A9s_en_France</t>
+          <t>Liste_de_gisants_situés_en_France</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -590,6 +608,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -597,7 +617,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Liste_de_gisants_situ%C3%A9s_en_France</t>
+          <t>Liste_de_gisants_situés_en_France</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -616,6 +636,8 @@
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -623,7 +645,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Liste_de_gisants_situ%C3%A9s_en_France</t>
+          <t>Liste_de_gisants_situés_en_France</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -642,6 +664,8 @@
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -649,7 +673,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Liste_de_gisants_situ%C3%A9s_en_France</t>
+          <t>Liste_de_gisants_situés_en_France</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -668,6 +692,8 @@
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -675,7 +701,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Liste_de_gisants_situ%C3%A9s_en_France</t>
+          <t>Liste_de_gisants_situés_en_France</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -694,6 +720,8 @@
         </is>
       </c>
       <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -701,7 +729,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Liste_de_gisants_situ%C3%A9s_en_France</t>
+          <t>Liste_de_gisants_situés_en_France</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -720,6 +748,8 @@
         </is>
       </c>
       <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -727,7 +757,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Liste_de_gisants_situ%C3%A9s_en_France</t>
+          <t>Liste_de_gisants_situés_en_France</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -746,6 +776,8 @@
         </is>
       </c>
       <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -753,7 +785,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Liste_de_gisants_situ%C3%A9s_en_France</t>
+          <t>Liste_de_gisants_situés_en_France</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -772,6 +804,8 @@
         </is>
       </c>
       <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -779,7 +813,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Liste_de_gisants_situ%C3%A9s_en_France</t>
+          <t>Liste_de_gisants_situés_en_France</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -798,6 +832,8 @@
         </is>
       </c>
       <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -805,7 +841,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Liste_de_gisants_situ%C3%A9s_en_France</t>
+          <t>Liste_de_gisants_situés_en_France</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -824,6 +860,8 @@
         </is>
       </c>
       <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -831,7 +869,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Liste_de_gisants_situ%C3%A9s_en_France</t>
+          <t>Liste_de_gisants_situés_en_France</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -850,6 +888,8 @@
         </is>
       </c>
       <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -857,7 +897,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Liste_de_gisants_situ%C3%A9s_en_France</t>
+          <t>Liste_de_gisants_situés_en_France</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -876,6 +916,8 @@
         </is>
       </c>
       <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -883,7 +925,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Liste_de_gisants_situ%C3%A9s_en_France</t>
+          <t>Liste_de_gisants_situés_en_France</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -902,6 +944,8 @@
         </is>
       </c>
       <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -909,7 +953,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Liste_de_gisants_situ%C3%A9s_en_France</t>
+          <t>Liste_de_gisants_situés_en_France</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -928,6 +972,8 @@
         </is>
       </c>
       <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -935,7 +981,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Liste_de_gisants_situ%C3%A9s_en_France</t>
+          <t>Liste_de_gisants_situés_en_France</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -954,6 +1000,8 @@
         </is>
       </c>
       <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -961,7 +1009,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Liste_de_gisants_situ%C3%A9s_en_France</t>
+          <t>Liste_de_gisants_situés_en_France</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -980,6 +1028,8 @@
         </is>
       </c>
       <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -987,7 +1037,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Liste_de_gisants_situ%C3%A9s_en_France</t>
+          <t>Liste_de_gisants_situés_en_France</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1006,6 +1056,8 @@
         </is>
       </c>
       <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1013,7 +1065,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Liste_de_gisants_situ%C3%A9s_en_France</t>
+          <t>Liste_de_gisants_situés_en_France</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1032,6 +1084,8 @@
         </is>
       </c>
       <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1039,7 +1093,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Liste_de_gisants_situ%C3%A9s_en_France</t>
+          <t>Liste_de_gisants_situés_en_France</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1058,6 +1112,8 @@
         </is>
       </c>
       <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1065,7 +1121,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Liste_de_gisants_situ%C3%A9s_en_France</t>
+          <t>Liste_de_gisants_situés_en_France</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1084,6 +1140,8 @@
         </is>
       </c>
       <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1091,7 +1149,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Liste_de_gisants_situ%C3%A9s_en_France</t>
+          <t>Liste_de_gisants_situés_en_France</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1110,6 +1168,8 @@
         </is>
       </c>
       <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1117,7 +1177,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Liste_de_gisants_situ%C3%A9s_en_France</t>
+          <t>Liste_de_gisants_situés_en_France</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1136,6 +1196,8 @@
         </is>
       </c>
       <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1143,7 +1205,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Liste_de_gisants_situ%C3%A9s_en_France</t>
+          <t>Liste_de_gisants_situés_en_France</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1162,6 +1224,8 @@
         </is>
       </c>
       <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1169,7 +1233,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Liste_de_gisants_situ%C3%A9s_en_France</t>
+          <t>Liste_de_gisants_situés_en_France</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1188,6 +1252,8 @@
         </is>
       </c>
       <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1195,7 +1261,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Liste_de_gisants_situ%C3%A9s_en_France</t>
+          <t>Liste_de_gisants_situés_en_France</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1214,6 +1280,8 @@
         </is>
       </c>
       <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1221,7 +1289,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Liste_de_gisants_situ%C3%A9s_en_France</t>
+          <t>Liste_de_gisants_situés_en_France</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1240,6 +1308,8 @@
         </is>
       </c>
       <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1247,7 +1317,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Liste_de_gisants_situ%C3%A9s_en_France</t>
+          <t>Liste_de_gisants_situés_en_France</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1266,6 +1336,8 @@
         </is>
       </c>
       <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1273,7 +1345,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Liste_de_gisants_situ%C3%A9s_en_France</t>
+          <t>Liste_de_gisants_situés_en_France</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1292,6 +1364,8 @@
         </is>
       </c>
       <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1299,7 +1373,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Liste_de_gisants_situ%C3%A9s_en_France</t>
+          <t>Liste_de_gisants_situés_en_France</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1318,6 +1392,8 @@
         </is>
       </c>
       <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1325,7 +1401,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Liste_de_gisants_situ%C3%A9s_en_France</t>
+          <t>Liste_de_gisants_situés_en_France</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1344,6 +1420,8 @@
         </is>
       </c>
       <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1351,7 +1429,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Liste_de_gisants_situ%C3%A9s_en_France</t>
+          <t>Liste_de_gisants_situés_en_France</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1370,6 +1448,8 @@
         </is>
       </c>
       <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1377,7 +1457,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Liste_de_gisants_situ%C3%A9s_en_France</t>
+          <t>Liste_de_gisants_situés_en_France</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1396,6 +1476,8 @@
         </is>
       </c>
       <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1403,7 +1485,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Liste_de_gisants_situ%C3%A9s_en_France</t>
+          <t>Liste_de_gisants_situés_en_France</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1422,6 +1504,8 @@
         </is>
       </c>
       <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1429,7 +1513,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Liste_de_gisants_situ%C3%A9s_en_France</t>
+          <t>Liste_de_gisants_situés_en_France</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1448,6 +1532,8 @@
         </is>
       </c>
       <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1455,7 +1541,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Liste_de_gisants_situ%C3%A9s_en_France</t>
+          <t>Liste_de_gisants_situés_en_France</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1474,6 +1560,8 @@
         </is>
       </c>
       <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1481,7 +1569,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Liste_de_gisants_situ%C3%A9s_en_France</t>
+          <t>Liste_de_gisants_situés_en_France</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1500,6 +1588,8 @@
         </is>
       </c>
       <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1507,7 +1597,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Liste_de_gisants_situ%C3%A9s_en_France</t>
+          <t>Liste_de_gisants_situés_en_France</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1526,6 +1616,8 @@
         </is>
       </c>
       <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1533,7 +1625,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Liste_de_gisants_situ%C3%A9s_en_France</t>
+          <t>Liste_de_gisants_situés_en_France</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1552,6 +1644,8 @@
         </is>
       </c>
       <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1559,7 +1653,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Liste_de_gisants_situ%C3%A9s_en_France</t>
+          <t>Liste_de_gisants_situés_en_France</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1578,6 +1672,8 @@
         </is>
       </c>
       <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1585,7 +1681,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Liste_de_gisants_situ%C3%A9s_en_France</t>
+          <t>Liste_de_gisants_situés_en_France</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1604,6 +1700,8 @@
         </is>
       </c>
       <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1611,7 +1709,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Liste_de_gisants_situ%C3%A9s_en_France</t>
+          <t>Liste_de_gisants_situés_en_France</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1630,6 +1728,8 @@
         </is>
       </c>
       <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1637,7 +1737,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Liste_de_gisants_situ%C3%A9s_en_France</t>
+          <t>Liste_de_gisants_situés_en_France</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1656,6 +1756,8 @@
         </is>
       </c>
       <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1663,7 +1765,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Liste_de_gisants_situ%C3%A9s_en_France</t>
+          <t>Liste_de_gisants_situés_en_France</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1682,6 +1784,8 @@
         </is>
       </c>
       <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1689,7 +1793,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Liste_de_gisants_situ%C3%A9s_en_France</t>
+          <t>Liste_de_gisants_situés_en_France</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1708,6 +1812,8 @@
         </is>
       </c>
       <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1715,7 +1821,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Liste_de_gisants_situ%C3%A9s_en_France</t>
+          <t>Liste_de_gisants_situés_en_France</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1734,6 +1840,8 @@
         </is>
       </c>
       <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1741,7 +1849,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Liste_de_gisants_situ%C3%A9s_en_France</t>
+          <t>Liste_de_gisants_situés_en_France</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -1760,6 +1868,8 @@
         </is>
       </c>
       <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1767,7 +1877,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Liste_de_gisants_situ%C3%A9s_en_France</t>
+          <t>Liste_de_gisants_situés_en_France</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -1786,6 +1896,8 @@
         </is>
       </c>
       <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1793,7 +1905,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Liste_de_gisants_situ%C3%A9s_en_France</t>
+          <t>Liste_de_gisants_situés_en_France</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1812,6 +1924,8 @@
         </is>
       </c>
       <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1819,7 +1933,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Liste_de_gisants_situ%C3%A9s_en_France</t>
+          <t>Liste_de_gisants_situés_en_France</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -1838,6 +1952,8 @@
         </is>
       </c>
       <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1845,7 +1961,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Liste_de_gisants_situ%C3%A9s_en_France</t>
+          <t>Liste_de_gisants_situés_en_France</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -1864,6 +1980,8 @@
         </is>
       </c>
       <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr"/>
+      <c r="H55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1871,7 +1989,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Liste_de_gisants_situ%C3%A9s_en_France</t>
+          <t>Liste_de_gisants_situés_en_France</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -1890,6 +2008,8 @@
         </is>
       </c>
       <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr"/>
+      <c r="H56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -1897,7 +2017,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Liste_de_gisants_situ%C3%A9s_en_France</t>
+          <t>Liste_de_gisants_situés_en_France</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -1916,6 +2036,8 @@
         </is>
       </c>
       <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr"/>
+      <c r="H57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -1923,7 +2045,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Liste_de_gisants_situ%C3%A9s_en_France</t>
+          <t>Liste_de_gisants_situés_en_France</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -1942,6 +2064,8 @@
         </is>
       </c>
       <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr"/>
+      <c r="H58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -1949,7 +2073,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Liste_de_gisants_situ%C3%A9s_en_France</t>
+          <t>Liste_de_gisants_situés_en_France</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -1968,6 +2092,8 @@
         </is>
       </c>
       <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr"/>
+      <c r="H59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -1975,7 +2101,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Liste_de_gisants_situ%C3%A9s_en_France</t>
+          <t>Liste_de_gisants_situés_en_France</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -1994,6 +2120,8 @@
         </is>
       </c>
       <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr"/>
+      <c r="H60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2001,7 +2129,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Liste_de_gisants_situ%C3%A9s_en_France</t>
+          <t>Liste_de_gisants_situés_en_France</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2020,6 +2148,8 @@
         </is>
       </c>
       <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr"/>
+      <c r="H61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2027,7 +2157,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Liste_de_gisants_situ%C3%A9s_en_France</t>
+          <t>Liste_de_gisants_situés_en_France</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2046,6 +2176,8 @@
         </is>
       </c>
       <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr"/>
+      <c r="H62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2053,7 +2185,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Liste_de_gisants_situ%C3%A9s_en_France</t>
+          <t>Liste_de_gisants_situés_en_France</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2072,6 +2204,8 @@
         </is>
       </c>
       <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr"/>
+      <c r="H63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2079,7 +2213,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Liste_de_gisants_situ%C3%A9s_en_France</t>
+          <t>Liste_de_gisants_situés_en_France</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2098,6 +2232,8 @@
         </is>
       </c>
       <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr"/>
+      <c r="H64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2105,7 +2241,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Liste_de_gisants_situ%C3%A9s_en_France</t>
+          <t>Liste_de_gisants_situés_en_France</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2124,6 +2260,8 @@
         </is>
       </c>
       <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr"/>
+      <c r="H65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2131,7 +2269,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Liste_de_gisants_situ%C3%A9s_en_France</t>
+          <t>Liste_de_gisants_situés_en_France</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2150,6 +2288,8 @@
         </is>
       </c>
       <c r="F66" t="inlineStr"/>
+      <c r="G66" t="inlineStr"/>
+      <c r="H66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2157,7 +2297,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Liste_de_gisants_situ%C3%A9s_en_France</t>
+          <t>Liste_de_gisants_situés_en_France</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2176,6 +2316,8 @@
         </is>
       </c>
       <c r="F67" t="inlineStr"/>
+      <c r="G67" t="inlineStr"/>
+      <c r="H67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2183,7 +2325,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Liste_de_gisants_situ%C3%A9s_en_France</t>
+          <t>Liste_de_gisants_situés_en_France</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2202,6 +2344,8 @@
         </is>
       </c>
       <c r="F68" t="inlineStr"/>
+      <c r="G68" t="inlineStr"/>
+      <c r="H68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2209,7 +2353,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Liste_de_gisants_situ%C3%A9s_en_France</t>
+          <t>Liste_de_gisants_situés_en_France</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -2228,6 +2372,8 @@
         </is>
       </c>
       <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr"/>
+      <c r="H69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2235,7 +2381,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Liste_de_gisants_situ%C3%A9s_en_France</t>
+          <t>Liste_de_gisants_situés_en_France</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2254,6 +2400,8 @@
         </is>
       </c>
       <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr"/>
+      <c r="H70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2261,7 +2409,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Liste_de_gisants_situ%C3%A9s_en_France</t>
+          <t>Liste_de_gisants_situés_en_France</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2280,6 +2428,8 @@
         </is>
       </c>
       <c r="F71" t="inlineStr"/>
+      <c r="G71" t="inlineStr"/>
+      <c r="H71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2287,7 +2437,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Liste_de_gisants_situ%C3%A9s_en_France</t>
+          <t>Liste_de_gisants_situés_en_France</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2306,6 +2456,8 @@
         </is>
       </c>
       <c r="F72" t="inlineStr"/>
+      <c r="G72" t="inlineStr"/>
+      <c r="H72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2313,7 +2465,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Liste_de_gisants_situ%C3%A9s_en_France</t>
+          <t>Liste_de_gisants_situés_en_France</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2332,6 +2484,8 @@
         </is>
       </c>
       <c r="F73" t="inlineStr"/>
+      <c r="G73" t="inlineStr"/>
+      <c r="H73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2339,7 +2493,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Liste_de_gisants_situ%C3%A9s_en_France</t>
+          <t>Liste_de_gisants_situés_en_France</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2358,6 +2512,8 @@
         </is>
       </c>
       <c r="F74" t="inlineStr"/>
+      <c r="G74" t="inlineStr"/>
+      <c r="H74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2365,7 +2521,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Liste_de_gisants_situ%C3%A9s_en_France</t>
+          <t>Liste_de_gisants_situés_en_France</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2384,6 +2540,8 @@
         </is>
       </c>
       <c r="F75" t="inlineStr"/>
+      <c r="G75" t="inlineStr"/>
+      <c r="H75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2391,7 +2549,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Liste_de_gisants_situ%C3%A9s_en_France</t>
+          <t>Liste_de_gisants_situés_en_France</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -2410,6 +2568,8 @@
         </is>
       </c>
       <c r="F76" t="inlineStr"/>
+      <c r="G76" t="inlineStr"/>
+      <c r="H76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2417,7 +2577,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Liste_de_gisants_situ%C3%A9s_en_France</t>
+          <t>Liste_de_gisants_situés_en_France</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -2436,6 +2596,8 @@
         </is>
       </c>
       <c r="F77" t="inlineStr"/>
+      <c r="G77" t="inlineStr"/>
+      <c r="H77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2443,7 +2605,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Liste_de_gisants_situ%C3%A9s_en_France</t>
+          <t>Liste_de_gisants_situés_en_France</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -2462,6 +2624,8 @@
         </is>
       </c>
       <c r="F78" t="inlineStr"/>
+      <c r="G78" t="inlineStr"/>
+      <c r="H78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2469,7 +2633,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Liste_de_gisants_situ%C3%A9s_en_France</t>
+          <t>Liste_de_gisants_situés_en_France</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -2488,6 +2652,8 @@
         </is>
       </c>
       <c r="F79" t="inlineStr"/>
+      <c r="G79" t="inlineStr"/>
+      <c r="H79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2495,7 +2661,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Liste_de_gisants_situ%C3%A9s_en_France</t>
+          <t>Liste_de_gisants_situés_en_France</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -2514,6 +2680,8 @@
         </is>
       </c>
       <c r="F80" t="inlineStr"/>
+      <c r="G80" t="inlineStr"/>
+      <c r="H80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2521,7 +2689,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Liste_de_gisants_situ%C3%A9s_en_France</t>
+          <t>Liste_de_gisants_situés_en_France</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -2540,6 +2708,8 @@
         </is>
       </c>
       <c r="F81" t="inlineStr"/>
+      <c r="G81" t="inlineStr"/>
+      <c r="H81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2547,7 +2717,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Liste_de_gisants_situ%C3%A9s_en_France</t>
+          <t>Liste_de_gisants_situés_en_France</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -2566,6 +2736,8 @@
         </is>
       </c>
       <c r="F82" t="inlineStr"/>
+      <c r="G82" t="inlineStr"/>
+      <c r="H82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2573,7 +2745,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Liste_de_gisants_situ%C3%A9s_en_France</t>
+          <t>Liste_de_gisants_situés_en_France</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -2592,6 +2764,8 @@
         </is>
       </c>
       <c r="F83" t="inlineStr"/>
+      <c r="G83" t="inlineStr"/>
+      <c r="H83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2599,7 +2773,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Liste_de_gisants_situ%C3%A9s_en_France</t>
+          <t>Liste_de_gisants_situés_en_France</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -2618,6 +2792,8 @@
         </is>
       </c>
       <c r="F84" t="inlineStr"/>
+      <c r="G84" t="inlineStr"/>
+      <c r="H84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2625,7 +2801,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Liste_de_gisants_situ%C3%A9s_en_France</t>
+          <t>Liste_de_gisants_situés_en_France</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -2644,6 +2820,8 @@
         </is>
       </c>
       <c r="F85" t="inlineStr"/>
+      <c r="G85" t="inlineStr"/>
+      <c r="H85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2651,7 +2829,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Liste_de_gisants_situ%C3%A9s_en_France</t>
+          <t>Liste_de_gisants_situés_en_France</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -2670,6 +2848,8 @@
         </is>
       </c>
       <c r="F86" t="inlineStr"/>
+      <c r="G86" t="inlineStr"/>
+      <c r="H86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2677,7 +2857,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Liste_de_gisants_situ%C3%A9s_en_France</t>
+          <t>Liste_de_gisants_situés_en_France</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -2696,6 +2876,8 @@
         </is>
       </c>
       <c r="F87" t="inlineStr"/>
+      <c r="G87" t="inlineStr"/>
+      <c r="H87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2703,7 +2885,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Liste_de_gisants_situ%C3%A9s_en_France</t>
+          <t>Liste_de_gisants_situés_en_France</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -2722,6 +2904,8 @@
         </is>
       </c>
       <c r="F88" t="inlineStr"/>
+      <c r="G88" t="inlineStr"/>
+      <c r="H88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2729,7 +2913,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Liste_de_gisants_situ%C3%A9s_en_France</t>
+          <t>Liste_de_gisants_situés_en_France</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -2748,6 +2932,8 @@
         </is>
       </c>
       <c r="F89" t="inlineStr"/>
+      <c r="G89" t="inlineStr"/>
+      <c r="H89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2755,7 +2941,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Liste_de_gisants_situ%C3%A9s_en_France</t>
+          <t>Liste_de_gisants_situés_en_France</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -2774,6 +2960,8 @@
         </is>
       </c>
       <c r="F90" t="inlineStr"/>
+      <c r="G90" t="inlineStr"/>
+      <c r="H90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2781,7 +2969,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Liste_de_gisants_situ%C3%A9s_en_France</t>
+          <t>Liste_de_gisants_situés_en_France</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -2800,6 +2988,8 @@
         </is>
       </c>
       <c r="F91" t="inlineStr"/>
+      <c r="G91" t="inlineStr"/>
+      <c r="H91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -2807,7 +2997,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Liste_de_gisants_situ%C3%A9s_en_France</t>
+          <t>Liste_de_gisants_situés_en_France</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -2826,6 +3016,8 @@
         </is>
       </c>
       <c r="F92" t="inlineStr"/>
+      <c r="G92" t="inlineStr"/>
+      <c r="H92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -2833,7 +3025,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Liste_de_gisants_situ%C3%A9s_en_France</t>
+          <t>Liste_de_gisants_situés_en_France</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -2852,6 +3044,8 @@
         </is>
       </c>
       <c r="F93" t="inlineStr"/>
+      <c r="G93" t="inlineStr"/>
+      <c r="H93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -2859,7 +3053,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Liste_de_gisants_situ%C3%A9s_en_France</t>
+          <t>Liste_de_gisants_situés_en_France</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -2878,6 +3072,8 @@
         </is>
       </c>
       <c r="F94" t="inlineStr"/>
+      <c r="G94" t="inlineStr"/>
+      <c r="H94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -2885,7 +3081,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Liste_de_gisants_situ%C3%A9s_en_France</t>
+          <t>Liste_de_gisants_situés_en_France</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -2904,6 +3100,8 @@
         </is>
       </c>
       <c r="F95" t="inlineStr"/>
+      <c r="G95" t="inlineStr"/>
+      <c r="H95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -2911,7 +3109,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Liste_de_gisants_situ%C3%A9s_en_France</t>
+          <t>Liste_de_gisants_situés_en_France</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -2930,6 +3128,8 @@
         </is>
       </c>
       <c r="F96" t="inlineStr"/>
+      <c r="G96" t="inlineStr"/>
+      <c r="H96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -2937,7 +3137,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Liste_de_gisants_situ%C3%A9s_en_France</t>
+          <t>Liste_de_gisants_situés_en_France</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -2955,7 +3155,9 @@
           <t>Val-d'Oise</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
+      <c r="F97" t="inlineStr"/>
+      <c r="G97" t="inlineStr"/>
+      <c r="H97" t="inlineStr">
         <is>
           <t xml:space="preserve">Au 13 novembre 2011, la liste recense 543 gisants dans 75 départements, dont ceux des deux papes Clément VI et Benoît XII.
 </t>
